--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H2">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.491694333333334</v>
+        <v>14.10125566666667</v>
       </c>
       <c r="N2">
-        <v>22.475083</v>
+        <v>42.303767</v>
       </c>
       <c r="O2">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943118</v>
       </c>
       <c r="P2">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943116</v>
       </c>
       <c r="Q2">
-        <v>0.4282502204077778</v>
+        <v>2.230785743536778</v>
       </c>
       <c r="R2">
-        <v>3.85425198367</v>
+        <v>20.077071691831</v>
       </c>
       <c r="S2">
-        <v>0.03782301154156666</v>
+        <v>0.1062531782285421</v>
       </c>
       <c r="T2">
-        <v>0.03782301154156666</v>
+        <v>0.106253178228542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H3">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.162189</v>
       </c>
       <c r="O3">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="P3">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="Q3">
-        <v>0.17458042129</v>
+        <v>0.483145640453</v>
       </c>
       <c r="R3">
-        <v>1.57122379161</v>
+        <v>4.348310764077</v>
       </c>
       <c r="S3">
-        <v>0.01541892327129626</v>
+        <v>0.02301241165545819</v>
       </c>
       <c r="T3">
-        <v>0.01541892327129627</v>
+        <v>0.02301241165545818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H4">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.742085333333333</v>
+        <v>1.366842</v>
       </c>
       <c r="N4">
-        <v>5.226256</v>
+        <v>4.100526</v>
       </c>
       <c r="O4">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818179</v>
       </c>
       <c r="P4">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818176</v>
       </c>
       <c r="Q4">
-        <v>0.09958340460444445</v>
+        <v>0.216231215102</v>
       </c>
       <c r="R4">
-        <v>0.8962506414400001</v>
+        <v>1.946080935918</v>
       </c>
       <c r="S4">
-        <v>0.008795195150433128</v>
+        <v>0.01029917548261768</v>
       </c>
       <c r="T4">
-        <v>0.008795195150433128</v>
+        <v>0.01029917548261767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H5">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1353556666666667</v>
+        <v>0.06660100000000001</v>
       </c>
       <c r="N5">
-        <v>0.406067</v>
+        <v>0.199803</v>
       </c>
       <c r="O5">
-        <v>0.0108953960996893</v>
+        <v>0.003582863732091891</v>
       </c>
       <c r="P5">
-        <v>0.0108953960996893</v>
+        <v>0.00358286373209189</v>
       </c>
       <c r="Q5">
-        <v>0.007737381092222224</v>
+        <v>0.01053612279766667</v>
       </c>
       <c r="R5">
-        <v>0.06963642983</v>
+        <v>0.09482510517900002</v>
       </c>
       <c r="S5">
-        <v>0.0006833646321862015</v>
+        <v>0.0005018395588647554</v>
       </c>
       <c r="T5">
-        <v>0.0006833646321862015</v>
+        <v>0.0005018395588647551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.381805</v>
       </c>
       <c r="I6">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J6">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.491694333333334</v>
+        <v>14.10125566666667</v>
       </c>
       <c r="N6">
-        <v>22.475083</v>
+        <v>42.303767</v>
       </c>
       <c r="O6">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943118</v>
       </c>
       <c r="P6">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943116</v>
       </c>
       <c r="Q6">
-        <v>5.947918340535</v>
+        <v>11.195480417715</v>
       </c>
       <c r="R6">
-        <v>53.531265064815</v>
+        <v>100.759323759435</v>
       </c>
       <c r="S6">
-        <v>0.5253194822133138</v>
+        <v>0.5332450145085003</v>
       </c>
       <c r="T6">
-        <v>0.5253194822133138</v>
+        <v>0.5332450145085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.381805</v>
       </c>
       <c r="I7">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J7">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.162189</v>
       </c>
       <c r="O7">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="P7">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="Q7">
         <v>2.424727507905</v>
@@ -883,10 +883,10 @@
         <v>21.822547571145</v>
       </c>
       <c r="S7">
-        <v>0.2141516621505032</v>
+        <v>0.1154906986471115</v>
       </c>
       <c r="T7">
-        <v>0.2141516621505033</v>
+        <v>0.1154906986471115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.381805</v>
       </c>
       <c r="I8">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J8">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.742085333333333</v>
+        <v>1.366842</v>
       </c>
       <c r="N8">
-        <v>5.226256</v>
+        <v>4.100526</v>
       </c>
       <c r="O8">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818179</v>
       </c>
       <c r="P8">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818176</v>
       </c>
       <c r="Q8">
-        <v>1.38310251912</v>
+        <v>1.08518370327</v>
       </c>
       <c r="R8">
-        <v>12.44792267208</v>
+        <v>9.766653329430001</v>
       </c>
       <c r="S8">
-        <v>0.1221554597077227</v>
+        <v>0.05168771486384375</v>
       </c>
       <c r="T8">
-        <v>0.1221554597077228</v>
+        <v>0.05168771486384372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.381805</v>
       </c>
       <c r="I9">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J9">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1353556666666667</v>
+        <v>0.06660100000000001</v>
       </c>
       <c r="N9">
-        <v>0.406067</v>
+        <v>0.199803</v>
       </c>
       <c r="O9">
-        <v>0.0108953960996893</v>
+        <v>0.003582863732091891</v>
       </c>
       <c r="P9">
-        <v>0.0108953960996893</v>
+        <v>0.00358286373209189</v>
       </c>
       <c r="Q9">
-        <v>0.107463601215</v>
+        <v>0.052876864935</v>
       </c>
       <c r="R9">
-        <v>0.9671724109350001</v>
+        <v>0.475891784415</v>
       </c>
       <c r="S9">
-        <v>0.009491173233216254</v>
+        <v>0.002518545301978471</v>
       </c>
       <c r="T9">
-        <v>0.009491173233216256</v>
+        <v>0.00251854530197847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H10">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I10">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J10">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.491694333333334</v>
+        <v>14.10125566666667</v>
       </c>
       <c r="N10">
-        <v>22.475083</v>
+        <v>42.303767</v>
       </c>
       <c r="O10">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943118</v>
       </c>
       <c r="P10">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943116</v>
       </c>
       <c r="Q10">
-        <v>0.4222743455612223</v>
+        <v>1.692004967024778</v>
       </c>
       <c r="R10">
-        <v>3.800469110051</v>
+        <v>15.228044703223</v>
       </c>
       <c r="S10">
-        <v>0.03729522294387018</v>
+        <v>0.08059084376244501</v>
       </c>
       <c r="T10">
-        <v>0.03729522294387019</v>
+        <v>0.08059084376244496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H11">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I11">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J11">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.162189</v>
       </c>
       <c r="O11">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="P11">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="Q11">
-        <v>0.172144297037</v>
+        <v>0.366456001349</v>
       </c>
       <c r="R11">
-        <v>1.549298673333</v>
+        <v>3.298104012141</v>
       </c>
       <c r="S11">
-        <v>0.01520376504989436</v>
+        <v>0.01745443951175771</v>
       </c>
       <c r="T11">
-        <v>0.01520376504989437</v>
+        <v>0.0174544395117577</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H12">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I12">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J12">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.742085333333333</v>
+        <v>1.366842</v>
       </c>
       <c r="N12">
-        <v>5.226256</v>
+        <v>4.100526</v>
       </c>
       <c r="O12">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818179</v>
       </c>
       <c r="P12">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818176</v>
       </c>
       <c r="Q12">
-        <v>0.09819380120355557</v>
+        <v>0.164006915966</v>
       </c>
       <c r="R12">
-        <v>0.8837442108320001</v>
+        <v>1.476062243694</v>
       </c>
       <c r="S12">
-        <v>0.008672465533575079</v>
+        <v>0.007811712139248582</v>
       </c>
       <c r="T12">
-        <v>0.008672465533575081</v>
+        <v>0.007811712139248577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H13">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I13">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J13">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1353556666666667</v>
+        <v>0.06660100000000001</v>
       </c>
       <c r="N13">
-        <v>0.406067</v>
+        <v>0.199803</v>
       </c>
       <c r="O13">
-        <v>0.0108953960996893</v>
+        <v>0.003582863732091891</v>
       </c>
       <c r="P13">
-        <v>0.0108953960996893</v>
+        <v>0.00358286373209189</v>
       </c>
       <c r="Q13">
-        <v>0.007629412388777779</v>
+        <v>0.007991431789666667</v>
       </c>
       <c r="R13">
-        <v>0.068664711499</v>
+        <v>0.071922886107</v>
       </c>
       <c r="S13">
-        <v>0.0006738288483806059</v>
+        <v>0.0003806349528227073</v>
       </c>
       <c r="T13">
-        <v>0.0006738288483806059</v>
+        <v>0.000380634952822707</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H14">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.491694333333334</v>
+        <v>14.10125566666667</v>
       </c>
       <c r="N14">
-        <v>22.475083</v>
+        <v>42.303767</v>
       </c>
       <c r="O14">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943118</v>
       </c>
       <c r="P14">
-        <v>0.6030407091893539</v>
+        <v>0.7585903740943116</v>
       </c>
       <c r="Q14">
-        <v>0.02947232550733334</v>
+        <v>0.8083356794174443</v>
       </c>
       <c r="R14">
-        <v>0.265250929566</v>
+        <v>7.275021114756999</v>
       </c>
       <c r="S14">
-        <v>0.002602992490603357</v>
+        <v>0.03850133759482464</v>
       </c>
       <c r="T14">
-        <v>0.002602992490603358</v>
+        <v>0.03850133759482462</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H15">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.162189</v>
       </c>
       <c r="O15">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="P15">
-        <v>0.2458354860040738</v>
+        <v>0.1642962051354147</v>
       </c>
       <c r="Q15">
-        <v>0.012014683842</v>
+        <v>0.175070089391</v>
       </c>
       <c r="R15">
-        <v>0.108132154578</v>
+        <v>1.575630804519</v>
       </c>
       <c r="S15">
-        <v>0.001061135532379955</v>
+        <v>0.008338655321087334</v>
       </c>
       <c r="T15">
-        <v>0.001061135532379955</v>
+        <v>0.008338655321087329</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H16">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.742085333333333</v>
+        <v>1.366842</v>
       </c>
       <c r="N16">
-        <v>5.226256</v>
+        <v>4.100526</v>
       </c>
       <c r="O16">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818179</v>
       </c>
       <c r="P16">
-        <v>0.1402284087068829</v>
+        <v>0.07353055703818176</v>
       </c>
       <c r="Q16">
-        <v>0.006853363701333334</v>
+        <v>0.078352395194</v>
       </c>
       <c r="R16">
-        <v>0.061680273312</v>
+        <v>0.705171556746</v>
       </c>
       <c r="S16">
-        <v>0.0006052883151519725</v>
+        <v>0.003731954552471791</v>
       </c>
       <c r="T16">
-        <v>0.0006052883151519726</v>
+        <v>0.003731954552471788</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H17">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1353556666666667</v>
+        <v>0.06660100000000001</v>
       </c>
       <c r="N17">
-        <v>0.406067</v>
+        <v>0.199803</v>
       </c>
       <c r="O17">
-        <v>0.0108953960996893</v>
+        <v>0.003582863732091891</v>
       </c>
       <c r="P17">
-        <v>0.0108953960996893</v>
+        <v>0.00358286373209189</v>
       </c>
       <c r="Q17">
-        <v>0.0005324891926666667</v>
+        <v>0.003817813523666667</v>
       </c>
       <c r="R17">
-        <v>0.004792402734</v>
+        <v>0.034360321713</v>
       </c>
       <c r="S17">
-        <v>4.702938590624263E-05</v>
+        <v>0.0001818439184259583</v>
       </c>
       <c r="T17">
-        <v>4.702938590624264E-05</v>
+        <v>0.0001818439184259582</v>
       </c>
     </row>
   </sheetData>
